--- a/trunk/pubchem-xml-tool/src/main/resources/ExcelTemplate.xlsx
+++ b/trunk/pubchem-xml-tool/src/main/resources/ExcelTemplate.xlsx
@@ -4,14 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2475" windowWidth="16485" windowHeight="10125" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="14445" windowHeight="11985"/>
   </bookViews>
   <sheets>
-    <sheet name="TIDs" sheetId="3" r:id="rId1"/>
-    <sheet name="Panel" sheetId="2" r:id="rId2"/>
-    <sheet name="Xrefs" sheetId="5" r:id="rId3"/>
+    <sheet name="Assay" sheetId="6" r:id="rId1"/>
+    <sheet name="Xrefs" sheetId="5" r:id="rId2"/>
+    <sheet name="TIDs" sheetId="3" r:id="rId3"/>
+    <sheet name="Panel" sheetId="2" r:id="rId4"/>
+    <sheet name="Source" sheetId="7" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="Sources">Source!$A$1:$A$38</definedName>
     <definedName name="TidPanelReadoutOptions">#REF!</definedName>
     <definedName name="TidTypeOptions">#REF!</definedName>
     <definedName name="TidUnitOptions">#REF!</definedName>
@@ -26,7 +29,20 @@
     <author>scanny</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hold Unti Date value should be a numerical date or left blank.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -36,194 +52,29 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>scanny:</t>
-        </r>
-        <r>
-          <rPr>
+          <t xml:space="preserve">If [References] is used as a place holder for the reference section, then the references will automatically be generated from the XRef PMID values and placed in the description.  
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <u/>
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-The TID Name can be found in the assay document.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0">
-      <text>
+          <t>If a reference is not a PMID</t>
+        </r>
         <r>
           <rPr>
             <b/>
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>scanny:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-The TID description can be found in the assay document.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>scanny:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-The TID Type is one of four options:
-string,
-integer,
-float,
-boolean</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">scanny:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>If the TID does not have a unit, choose none.  Otherwise choose unit from the list provided.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>scanny:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-TID Concentration should be in uM.  This should be filled in if the TID was tested at a particular concentration.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>scanny:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-TID Plot is used if multiple replicates of a TID at one concentration are shown.  TID Plot will be a value of 1.  
-TID Plot can also be used if TIDs should be plotted separately. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>scanny:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-TID Panel Num is the number of the panel member the TID corresponds to.  More than one TID can correspond to a particular panel member, but multiple panel members can not correspond to a single TID.
-If this column is left blank, and the xml includes panel information, the TID will be placed in the "general" category.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>scanny:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-If the assay is a panel assay than each TID will have a panel readout.  
-Ac = active concentration
-Regular is used for everything that is not an outcome or an ac.</t>
+            <family val="2"/>
+          </rPr>
+          <t>, still include it in the XRef section as a PMID, but have the value be the citation.</t>
         </r>
       </text>
     </comment>
@@ -237,32 +88,40 @@
     <author>scanny</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If a reference included in the description is not a PMID, still include it in the Xrefs. Set the type as PMID but have the value be the reference citation.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
-            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>For genes and proteins, if comment field is left blank, then the name of the gene or protein will be retrieved from NCBI and placed in the comment field.</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>scanny:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t xml:space="preserve">
-Panel Target Type is only required if any other target fiels are present.  These fields include: target gi, gene, and taxonomy.
-The choices are:
-protein
-DNA
-RNA
-other-biopolymer</t>
+</t>
         </r>
       </text>
     </comment>
@@ -270,18 +129,142 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">scanny:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Is Target? can be a value of true or false. 
+Is Target? should only be used for a protein GI or nucleotide GI.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>scanny</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The TID Type is one of four options:
+string,
+integer,
+float,
+boolean</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If the TID does not have a unit, choose none.  Otherwise choose unit from the list provided.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TID Concentration should be in uM.  This should be filled in if the TID was tested at a particular concentration.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">TID Plot is used if multiple replicates of a TID at one concentration are shown.  TID Plot will be a value of 1.  
+TID Plot can also be used if TIDs should be plotted separately. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TID Panel Num is the number of the panel member the TID corresponds to.  More than one TID can correspond to a particular panel member, but multiple panel members can not correspond to a single TID.
+If this column is left blank, and the xml includes panel information, the TID will be placed in the "general" category.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If the assay is a panel assay than each TID will have a panel readout.  
+Ac = active concentration
+Regular is used for everything that is not an outcome or an ac.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>scanny</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Panel Target Type is only required if any other target fields are present.  These fields include: target gi, gene, and taxonomy.
+The choices are:
+protein, DNA, RNA, other-biopolymer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -298,23 +281,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>scanny:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Panel Taxonomy is not a required field. If used the Taxonomy of the Panel Member should be entered in its numeric form.</t>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Panel Taxonomy is not a required field. If used the Taxonomy of the Panel Member should be entered in its numeric form.</t>
         </r>
       </text>
     </comment>
@@ -322,23 +294,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>scanny:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Panel Protein Name is the NCBI name for the Protein GI.  This is only needed if the Panel Member is a protein.</t>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Panel Target Name is the NCBI name for the Target GI.  This is only needed if the Panel Member is a protein, nucleotide or other-biopolymer.  If left blank and Panel Member is a protein, DNA or RNA, then it will be automatically filled in in the xml. If the target is an "other-polymer", then this field must be filled in manually in the spreadsheet.</t>
         </r>
       </text>
     </comment>
@@ -347,7 +308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>TID Name</t>
   </si>
@@ -388,9 +349,6 @@
     <t>Panel Taxonomy</t>
   </si>
   <si>
-    <t>Panel Protein Name</t>
-  </si>
-  <si>
     <t>Xref Comment</t>
   </si>
   <si>
@@ -398,13 +356,160 @@
   </si>
   <si>
     <t>Xref Value</t>
+  </si>
+  <si>
+    <t>Grant Number</t>
+  </si>
+  <si>
+    <t>Project Category</t>
+  </si>
+  <si>
+    <t>Hold Until Date</t>
+  </si>
+  <si>
+    <t>Activity Outcome Method</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Vanderbilt Screening Center for GPCRs, Ion Channels and Transporters</t>
+  </si>
+  <si>
+    <t>University of Pittsburgh Molecular Library Screening Center</t>
+  </si>
+  <si>
+    <t>The Scripps Research Institute Molecular Screening Center</t>
+  </si>
+  <si>
+    <t>Thermo Scientific Dharmacon RNAi Technologies</t>
+  </si>
+  <si>
+    <t>The Genomics Institute of the Novartis Research Foundation (GNF)</t>
+  </si>
+  <si>
+    <t>Structural Genomics Consortium</t>
+  </si>
+  <si>
+    <t>SRMLSC</t>
+  </si>
+  <si>
+    <t>Southern Research Specialized Biocontainment Screening Center</t>
+  </si>
+  <si>
+    <t>Southern Research Institute</t>
+  </si>
+  <si>
+    <t>Shanghai Institute of Organic Chemistry</t>
+  </si>
+  <si>
+    <t>SGCStoCompounds</t>
+  </si>
+  <si>
+    <t>SGCOxCompounds</t>
+  </si>
+  <si>
+    <t>ProbeDB</t>
+  </si>
+  <si>
+    <t>PDSP</t>
+  </si>
+  <si>
+    <t>PCMD</t>
+  </si>
+  <si>
+    <t>PANACHE</t>
+  </si>
+  <si>
+    <t>NMMLSC</t>
+  </si>
+  <si>
+    <t>NINDS Approved Drug Screening Program</t>
+  </si>
+  <si>
+    <t>NCGC</t>
+  </si>
+  <si>
+    <t>MTDP</t>
+  </si>
+  <si>
+    <t>Laboratory of Environmental Genomics, Carolina Center for Computational Toxicology, University of North Carolina at Chapel Hill</t>
+  </si>
+  <si>
+    <t>Johns Hopkins Ion Channel Center</t>
+  </si>
+  <si>
+    <t>IUPHAR-DB</t>
+  </si>
+  <si>
+    <t>GLIDA, GPCR-Ligand Database</t>
+  </si>
+  <si>
+    <t>GlaxoSmithKline (GSK)</t>
+  </si>
+  <si>
+    <t>EPA DSSTox</t>
+  </si>
+  <si>
+    <t>Emory University Molecular Libraries Screening Center</t>
+  </si>
+  <si>
+    <t>DTP/NCI</t>
+  </si>
+  <si>
+    <t>Diabetic Complications Screening</t>
+  </si>
+  <si>
+    <t>Columbia University Molecular Screening Center</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>ChemBlock</t>
+  </si>
+  <si>
+    <t>ChEMBL</t>
+  </si>
+  <si>
+    <t>ChemBank</t>
+  </si>
+  <si>
+    <t>CC_PMLSC</t>
+  </si>
+  <si>
+    <t>Burnham Center for Chemical Genomics</t>
+  </si>
+  <si>
+    <t>Broad Institute</t>
+  </si>
+  <si>
+    <t>BindingDB</t>
+  </si>
+  <si>
+    <t>Ambit Biosciences</t>
+  </si>
+  <si>
+    <t>Is Target</t>
+  </si>
+  <si>
+    <t>AID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Panel Target Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,7 +526,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -429,22 +533,37 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -453,6 +572,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -475,18 +609,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,61 +968,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="117.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="21"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" ht="276" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="295.5" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" ht="191.25" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Pick a TID Type from list" promptTitle="TID Type" prompt="Choose the format of the TID" sqref="C2:C88">
-      <formula1>"float, int, string, bool"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Option not in list." prompt="Choose an option from the list." sqref="B5">
+      <formula1>"screening, confirmatory, summary, other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Pick a unit from the list" promptTitle="TID Unit" prompt="Pick the unit of the TID" sqref="D2:D124">
-      <formula1>"um, nm, percent, none, unspecified, day, fgml, fm, m, mgml, min, mm, ngml, phml, pm, ppb, ppm, ppt, ratio, rday, rmin, rsec, sec, ugml"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Option not in list." prompt="Choose an option from the list." sqref="B3">
+      <formula1>"MLSCN,MLPCN,MLSCN (Assay Provider),MLPCN (Assay Provider), Literature (Extracted), Literature (Author), Literature (Publisher),RNAi Global Initiative,Assay Vendor,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="TID Panel Readout" prompt="Pick the type of readout for each TID if a panel assay.  Otherwise leave blank." sqref="H2:H58">
-      <formula1>"ac, regular, outcome"</formula1>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Source not in the list" error="Source is not in the list.  Once xml is created, if it will not upload into PubChem, then double check source name." promptTitle="Sources" prompt="Choose a source from the list.  If the source is not in the list type it in." sqref="B6">
+      <formula1>Sources</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -846,40 +1052,412 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F1"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.75">
+      <c r="A1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A47:A94">
+      <formula1>"aid, source web page, protein, gene, taxonomy, omim, pmid, sid"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D39">
+      <formula1>"true, false"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A46">
+      <formula1>"AID, Source Database Homepage, Protein, Nucleotide, Gene, Taxonomy, OMIM, PMID, SID, CID, MESH, GenBank, MMDB, Substance Homepage, Assay Homepage, Biosystems Id, Substance Registry #"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="45" style="8" customWidth="1"/>
+    <col min="3" max="4" width="9.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="8" customWidth="1"/>
+    <col min="6" max="7" width="10.5703125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="31.5">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="3"/>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Pick a TID Type from list" promptTitle="TID Type" prompt="Choose the format of the TID" sqref="C2:C88">
+      <formula1>"float, int, string, bool"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Pick a unit from the list" promptTitle="TID Unit" prompt="Pick the unit of the TID" sqref="D2:D124">
+      <formula1>"um, nm, percent, none, unspecified, day, fgml, fm, m, mgml, min, mm, ngml, phml, pm, ppb, ppm, ppt, ratio, rday, rmin, rsec, sec, ugml"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="TID Panel Readout" prompt="Pick the type of readout for each TID if a panel assay.  Otherwise leave blank." sqref="H44:H58">
+      <formula1>"ac, regular, outcome"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="TID Panel Readout" prompt="Pick the type of readout for each TID if a panel assay.  Otherwise leave blank." sqref="H2:H43">
+      <formula1>"ac, regular, outcome, score"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="45.5703125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="31.5">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F1" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -893,40 +1471,221 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="117.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>14</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A94">
-      <formula1>"aid, source web page, protein, gene, taxonomy, omim, pmid, sid"</formula1>
+  <sortState ref="A1:A38">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <dataValidations count="2">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A38">
+      <formula1>$A$1:$A$39</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="A1">
+      <formula1>$A$1:$A$39</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>